--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72477.73441013986</v>
+        <v>14046161.83080949</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72477.73441013986</v>
+        <v>14046161.83080949</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92414.44474862151</v>
+        <v>10958396.11629218</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92414.44474862151</v>
+        <v>10958396.11629218</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609252909.327832</v>
+        <v>56166644.14469225</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14921.58531666257</v>
+        <v>1388916.263550921</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28508.31823022359</v>
+        <v>2574140.860138623</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42095.05114378456</v>
+        <v>3759365.456726326</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56181.8831317709</v>
+        <v>4747881.208571426</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69495.92161404254</v>
+        <v>5949949.300574608</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82629.11173015046</v>
+        <v>7124926.55844092</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95769.60341156456</v>
+        <v>8299903.816307222</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>108910.0950929787</v>
+        <v>9474881.074173523</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124202.9451393498</v>
+        <v>10055177.19924848</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>138361.9693189973</v>
+        <v>11169777.515799</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>152079.1180091595</v>
+        <v>12218626.09955499</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>165796.2666993219</v>
+        <v>13267474.68331098</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>179513.4153894842</v>
+        <v>14316323.26706698</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>195095.4722197604</v>
+        <v>15054071.00838718</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>215309.0817685275</v>
+        <v>15412901.31085969</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>251.0000000000423</v>
@@ -27052,7 +27052,7 @@
         <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
